--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H2">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J2">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N2">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O2">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P2">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q2">
-        <v>0.7851038760522223</v>
+        <v>1.271973935916444</v>
       </c>
       <c r="R2">
-        <v>7.06593488447</v>
+        <v>11.447765423248</v>
       </c>
       <c r="S2">
-        <v>0.003757995094448122</v>
+        <v>0.00749694647630483</v>
       </c>
       <c r="T2">
-        <v>0.003757995094448121</v>
+        <v>0.007496946476304832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H3">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J3">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>5.943388</v>
       </c>
       <c r="O3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P3">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q3">
-        <v>10.19878116659111</v>
+        <v>15.07997875000711</v>
       </c>
       <c r="R3">
-        <v>91.78903049931999</v>
+        <v>135.719808750064</v>
       </c>
       <c r="S3">
-        <v>0.04881770522662648</v>
+        <v>0.08888058973564063</v>
       </c>
       <c r="T3">
-        <v>0.04881770522662648</v>
+        <v>0.08888058973564063</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,61 +667,61 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.147963333333333</v>
+        <v>7.611809333333333</v>
       </c>
       <c r="H4">
-        <v>15.44389</v>
+        <v>22.835428</v>
       </c>
       <c r="I4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="J4">
-        <v>0.08821283672358764</v>
+        <v>0.1134603829630287</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N4">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P4">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q4">
-        <v>0.2442502683133334</v>
+        <v>2.898371475281333</v>
       </c>
       <c r="R4">
-        <v>2.19825241482</v>
+        <v>26.085343277532</v>
       </c>
       <c r="S4">
-        <v>0.001169133586188141</v>
+        <v>0.01708284675108327</v>
       </c>
       <c r="T4">
-        <v>0.001169133586188141</v>
+        <v>0.01708284675108327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.147963333333333</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H5">
-        <v>15.44389</v>
+        <v>31.579463</v>
       </c>
       <c r="I5">
-        <v>0.08821283672358764</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J5">
-        <v>0.08821283672358764</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.385388</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N5">
-        <v>4.156164</v>
+        <v>0.501316</v>
       </c>
       <c r="O5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P5">
-        <v>0.386993941120767</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q5">
-        <v>7.131926626439999</v>
+        <v>1.759032230367556</v>
       </c>
       <c r="R5">
-        <v>64.18733963795999</v>
+        <v>15.831290073308</v>
       </c>
       <c r="S5">
-        <v>0.0341378333411039</v>
+        <v>0.01036764206308937</v>
       </c>
       <c r="T5">
-        <v>0.0341378333411039</v>
+        <v>0.01036764206308937</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.147963333333333</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H6">
-        <v>15.44389</v>
+        <v>31.579463</v>
       </c>
       <c r="I6">
-        <v>0.08821283672358764</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J6">
-        <v>0.08821283672358764</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.013399</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N6">
-        <v>0.040197</v>
+        <v>5.943388</v>
       </c>
       <c r="O6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P6">
-        <v>0.003742873344562792</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q6">
-        <v>0.06897756070333334</v>
+        <v>20.85433349340489</v>
       </c>
       <c r="R6">
-        <v>0.62079804633</v>
+        <v>187.689001440644</v>
       </c>
       <c r="S6">
-        <v>0.0003301694752209859</v>
+        <v>0.1229143283399305</v>
       </c>
       <c r="T6">
-        <v>0.0003301694752209859</v>
+        <v>0.1229143283399305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>31.579463</v>
       </c>
       <c r="I7">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="J7">
-        <v>0.1803764474777777</v>
+        <v>0.1569061007197586</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1525076666666667</v>
+        <v>0.380773</v>
       </c>
       <c r="N7">
-        <v>0.457523</v>
+        <v>1.142319</v>
       </c>
       <c r="O7">
-        <v>0.04260145387029884</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P7">
-        <v>0.04260145387029883</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q7">
-        <v>1.605370072238778</v>
+        <v>4.008202288299668</v>
       </c>
       <c r="R7">
-        <v>14.448330650149</v>
+        <v>36.073820594697</v>
       </c>
       <c r="S7">
-        <v>0.007684298906512929</v>
+        <v>0.02362413031673872</v>
       </c>
       <c r="T7">
-        <v>0.007684298906512928</v>
+        <v>0.02362413031673872</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,61 +915,61 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.52648766666667</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H8">
-        <v>31.579463</v>
+        <v>57.791447</v>
       </c>
       <c r="I8">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J8">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.981129333333333</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N8">
-        <v>5.943388</v>
+        <v>0.501316</v>
       </c>
       <c r="O8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P8">
-        <v>0.5534081777643695</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q8">
-        <v>20.85433349340489</v>
+        <v>3.219086338250222</v>
       </c>
       <c r="R8">
-        <v>187.689001440644</v>
+        <v>28.971777044252</v>
       </c>
       <c r="S8">
-        <v>0.09982180111028748</v>
+        <v>0.01897312303264941</v>
       </c>
       <c r="T8">
-        <v>0.09982180111028748</v>
+        <v>0.01897312303264941</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -977,51 +977,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.52648766666667</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H9">
-        <v>31.579463</v>
+        <v>57.791447</v>
       </c>
       <c r="I9">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J9">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04744600000000001</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N9">
-        <v>0.142338</v>
+        <v>5.943388</v>
       </c>
       <c r="O9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P9">
-        <v>0.01325355390000196</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q9">
-        <v>0.4994397338326668</v>
+        <v>38.16411028915955</v>
       </c>
       <c r="R9">
-        <v>4.494957604494</v>
+        <v>343.476992602436</v>
       </c>
       <c r="S9">
-        <v>0.0023906289689376</v>
+        <v>0.2249372287235439</v>
       </c>
       <c r="T9">
-        <v>0.0023906289689376</v>
+        <v>0.2249372287235439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.52648766666667</v>
+        <v>19.26381566666667</v>
       </c>
       <c r="H10">
-        <v>31.579463</v>
+        <v>57.791447</v>
       </c>
       <c r="I10">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="J10">
-        <v>0.1803764474777777</v>
+        <v>0.2871432805466829</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.385388</v>
+        <v>0.380773</v>
       </c>
       <c r="N10">
-        <v>4.156164</v>
+        <v>1.142319</v>
       </c>
       <c r="O10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P10">
-        <v>0.386993941120767</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q10">
-        <v>14.583269695548</v>
+        <v>7.335140882843667</v>
       </c>
       <c r="R10">
-        <v>131.249427259932</v>
+        <v>66.016267945593</v>
       </c>
       <c r="S10">
-        <v>0.06980459229478823</v>
+        <v>0.04323292879048953</v>
       </c>
       <c r="T10">
-        <v>0.06980459229478823</v>
+        <v>0.04323292879048953</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.52648766666667</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H11">
-        <v>31.579463</v>
+        <v>9.834659</v>
       </c>
       <c r="I11">
-        <v>0.1803764474777777</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J11">
-        <v>0.1803764474777777</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.013399</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N11">
-        <v>0.040197</v>
+        <v>0.501316</v>
       </c>
       <c r="O11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P11">
-        <v>0.003742873344562792</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q11">
-        <v>0.1410444082456667</v>
+        <v>0.5478079901382222</v>
       </c>
       <c r="R11">
-        <v>1.269399674211</v>
+        <v>4.930271911244</v>
       </c>
       <c r="S11">
-        <v>0.0006751261972515048</v>
+        <v>0.003228751050153716</v>
       </c>
       <c r="T11">
-        <v>0.0006751261972515048</v>
+        <v>0.003228751050153717</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.86906433333333</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H12">
-        <v>47.607193</v>
+        <v>9.834659</v>
       </c>
       <c r="I12">
-        <v>0.2719240776111022</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J12">
-        <v>0.2719240776111022</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1525076666666667</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N12">
-        <v>0.457523</v>
+        <v>5.943388</v>
       </c>
       <c r="O12">
-        <v>0.04260145387029884</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P12">
-        <v>0.04260145387029883</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q12">
-        <v>2.420153973659889</v>
+        <v>6.494577142743555</v>
       </c>
       <c r="R12">
-        <v>21.781385762939</v>
+        <v>58.451194284692</v>
       </c>
       <c r="S12">
-        <v>0.01158436104857293</v>
+        <v>0.03827869097828715</v>
       </c>
       <c r="T12">
-        <v>0.01158436104857293</v>
+        <v>0.03827869097828715</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.86906433333333</v>
+        <v>3.278219666666667</v>
       </c>
       <c r="H13">
-        <v>47.607193</v>
+        <v>9.834659</v>
       </c>
       <c r="I13">
-        <v>0.2719240776111022</v>
+        <v>0.04886460531638807</v>
       </c>
       <c r="J13">
-        <v>0.2719240776111022</v>
+        <v>0.04886460531638808</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.981129333333333</v>
+        <v>0.380773</v>
       </c>
       <c r="N13">
-        <v>5.943388</v>
+        <v>1.142319</v>
       </c>
       <c r="O13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P13">
-        <v>0.5534081777643695</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q13">
-        <v>31.43866884332045</v>
+        <v>1.248257537135667</v>
       </c>
       <c r="R13">
-        <v>282.948019589884</v>
+        <v>11.234317834221</v>
       </c>
       <c r="S13">
-        <v>0.150485008281017</v>
+        <v>0.007357163287947211</v>
       </c>
       <c r="T13">
-        <v>0.150485008281017</v>
+        <v>0.007357163287947212</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.86906433333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H14">
-        <v>47.607193</v>
+        <v>15.480013</v>
       </c>
       <c r="I14">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J14">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.04744600000000001</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N14">
-        <v>0.142338</v>
+        <v>0.501316</v>
       </c>
       <c r="O14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P14">
-        <v>0.01325355390000196</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q14">
-        <v>0.7529236263593335</v>
+        <v>0.8622642441231111</v>
       </c>
       <c r="R14">
-        <v>6.776312637234001</v>
+        <v>7.760378197107999</v>
       </c>
       <c r="S14">
-        <v>0.003603960419327059</v>
+        <v>0.005082139424472489</v>
       </c>
       <c r="T14">
-        <v>0.003603960419327058</v>
+        <v>0.00508213942447249</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.86906433333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H15">
-        <v>47.607193</v>
+        <v>15.480013</v>
       </c>
       <c r="I15">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J15">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.385388</v>
+        <v>1.981129333333333</v>
       </c>
       <c r="N15">
-        <v>4.156164</v>
+        <v>5.943388</v>
       </c>
       <c r="O15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P15">
-        <v>0.386993941120767</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q15">
-        <v>21.984811298628</v>
+        <v>10.22263594489378</v>
       </c>
       <c r="R15">
-        <v>197.863301687652</v>
+        <v>92.00372350404399</v>
       </c>
       <c r="S15">
-        <v>0.1052329704803497</v>
+        <v>0.06025167054260526</v>
       </c>
       <c r="T15">
-        <v>0.1052329704803497</v>
+        <v>0.06025167054260527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,51 +1411,51 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.86906433333333</v>
+        <v>5.160004333333333</v>
       </c>
       <c r="H16">
-        <v>47.607193</v>
+        <v>15.480013</v>
       </c>
       <c r="I16">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547969</v>
       </c>
       <c r="J16">
-        <v>0.2719240776111022</v>
+        <v>0.07691417928547971</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013399</v>
+        <v>0.380773</v>
       </c>
       <c r="N16">
-        <v>0.040197</v>
+        <v>1.142319</v>
       </c>
       <c r="O16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P16">
-        <v>0.003742873344562792</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q16">
-        <v>0.2126295930023334</v>
+        <v>1.964790330016333</v>
       </c>
       <c r="R16">
-        <v>1.913666337021</v>
+        <v>17.683112970147</v>
       </c>
       <c r="S16">
-        <v>0.001017777381835418</v>
+        <v>0.01158036931840195</v>
       </c>
       <c r="T16">
-        <v>0.001017777381835418</v>
+        <v>0.01158036931840195</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.850633666666667</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H17">
-        <v>17.551901</v>
+        <v>63.742439</v>
       </c>
       <c r="I17">
-        <v>0.100253432075829</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J17">
-        <v>0.100253432075829</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1525076666666667</v>
+        <v>0.1671053333333333</v>
       </c>
       <c r="N17">
-        <v>0.457523</v>
+        <v>0.501316</v>
       </c>
       <c r="O17">
-        <v>0.04260145387029884</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="P17">
-        <v>0.04260145387029883</v>
+        <v>0.06607545541907543</v>
       </c>
       <c r="Q17">
-        <v>0.8922664890247779</v>
+        <v>3.550567172191556</v>
       </c>
       <c r="R17">
-        <v>8.030398401223001</v>
+        <v>31.955104549724</v>
       </c>
       <c r="S17">
-        <v>0.004270941961917567</v>
+        <v>0.02092685337240561</v>
       </c>
       <c r="T17">
-        <v>0.004270941961917566</v>
+        <v>0.02092685337240562</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.850633666666667</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H18">
-        <v>17.551901</v>
+        <v>63.742439</v>
       </c>
       <c r="I18">
-        <v>0.100253432075829</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J18">
-        <v>0.100253432075829</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,37 +1559,37 @@
         <v>5.943388</v>
       </c>
       <c r="O18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171946</v>
       </c>
       <c r="P18">
-        <v>0.5534081777643695</v>
+        <v>0.7833623280171945</v>
       </c>
       <c r="Q18">
-        <v>11.59086197562089</v>
+        <v>42.09400522703689</v>
       </c>
       <c r="R18">
-        <v>104.317757780588</v>
+        <v>378.846047043332</v>
       </c>
       <c r="S18">
-        <v>0.05548106915970851</v>
+        <v>0.2480998196971871</v>
       </c>
       <c r="T18">
-        <v>0.05548106915970851</v>
+        <v>0.2480998196971871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,790 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.850633666666667</v>
+        <v>21.24747966666667</v>
       </c>
       <c r="H19">
-        <v>17.551901</v>
+        <v>63.742439</v>
       </c>
       <c r="I19">
-        <v>0.100253432075829</v>
+        <v>0.316711451168662</v>
       </c>
       <c r="J19">
-        <v>0.100253432075829</v>
+        <v>0.3167114511686621</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04744600000000001</v>
+        <v>0.380773</v>
       </c>
       <c r="N19">
-        <v>0.142338</v>
+        <v>1.142319</v>
       </c>
       <c r="O19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="P19">
-        <v>0.01325355390000196</v>
+        <v>0.15056221656373</v>
       </c>
       <c r="Q19">
-        <v>0.2775891649486668</v>
+        <v>8.090466575115668</v>
       </c>
       <c r="R19">
-        <v>2.498302484538001</v>
+        <v>72.81419917604101</v>
       </c>
       <c r="S19">
-        <v>0.001328714265677185</v>
+        <v>0.04768477809906927</v>
       </c>
       <c r="T19">
-        <v>0.001328714265677185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.850633666666667</v>
-      </c>
-      <c r="H20">
-        <v>17.551901</v>
-      </c>
-      <c r="I20">
-        <v>0.100253432075829</v>
-      </c>
-      <c r="J20">
-        <v>0.100253432075829</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.385388</v>
-      </c>
-      <c r="N20">
-        <v>4.156164</v>
-      </c>
-      <c r="O20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P20">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q20">
-        <v>8.105397674196</v>
-      </c>
-      <c r="R20">
-        <v>72.948579067764</v>
-      </c>
-      <c r="S20">
-        <v>0.03879747078990817</v>
-      </c>
-      <c r="T20">
-        <v>0.03879747078990817</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.850633666666667</v>
-      </c>
-      <c r="H21">
-        <v>17.551901</v>
-      </c>
-      <c r="I21">
-        <v>0.100253432075829</v>
-      </c>
-      <c r="J21">
-        <v>0.100253432075829</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.013399</v>
-      </c>
-      <c r="N21">
-        <v>0.040197</v>
-      </c>
-      <c r="O21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P21">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q21">
-        <v>0.07839264049966668</v>
-      </c>
-      <c r="R21">
-        <v>0.7055337644970001</v>
-      </c>
-      <c r="S21">
-        <v>0.0003752358986175568</v>
-      </c>
-      <c r="T21">
-        <v>0.0003752358986175568</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>5.843775333333333</v>
-      </c>
-      <c r="H22">
-        <v>17.531326</v>
-      </c>
-      <c r="I22">
-        <v>0.1001359112235315</v>
-      </c>
-      <c r="J22">
-        <v>0.1001359112235316</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N22">
-        <v>0.457523</v>
-      </c>
-      <c r="O22">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P22">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q22">
-        <v>0.891220540610889</v>
-      </c>
-      <c r="R22">
-        <v>8.020984865498001</v>
-      </c>
-      <c r="S22">
-        <v>0.004265935402749619</v>
-      </c>
-      <c r="T22">
-        <v>0.004265935402749619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>5.843775333333333</v>
-      </c>
-      <c r="H23">
-        <v>17.531326</v>
-      </c>
-      <c r="I23">
-        <v>0.1001359112235315</v>
-      </c>
-      <c r="J23">
-        <v>0.1001359112235316</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.943388</v>
-      </c>
-      <c r="O23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P23">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q23">
-        <v>11.57727473027644</v>
-      </c>
-      <c r="R23">
-        <v>104.195472572488</v>
-      </c>
-      <c r="S23">
-        <v>0.05541603215898926</v>
-      </c>
-      <c r="T23">
-        <v>0.05541603215898927</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>5.843775333333333</v>
-      </c>
-      <c r="H24">
-        <v>17.531326</v>
-      </c>
-      <c r="I24">
-        <v>0.1001359112235315</v>
-      </c>
-      <c r="J24">
-        <v>0.1001359112235316</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N24">
-        <v>0.142338</v>
-      </c>
-      <c r="O24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P24">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q24">
-        <v>0.2772637644653334</v>
-      </c>
-      <c r="R24">
-        <v>2.495373880188001</v>
-      </c>
-      <c r="S24">
-        <v>0.001327156696726887</v>
-      </c>
-      <c r="T24">
-        <v>0.001327156696726887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>5.843775333333333</v>
-      </c>
-      <c r="H25">
-        <v>17.531326</v>
-      </c>
-      <c r="I25">
-        <v>0.1001359112235315</v>
-      </c>
-      <c r="J25">
-        <v>0.1001359112235316</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.385388</v>
-      </c>
-      <c r="N25">
-        <v>4.156164</v>
-      </c>
-      <c r="O25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P25">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q25">
-        <v>8.095896221495998</v>
-      </c>
-      <c r="R25">
-        <v>72.86306599346399</v>
-      </c>
-      <c r="S25">
-        <v>0.03875199093211371</v>
-      </c>
-      <c r="T25">
-        <v>0.03875199093211372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>5.843775333333333</v>
-      </c>
-      <c r="H26">
-        <v>17.531326</v>
-      </c>
-      <c r="I26">
-        <v>0.1001359112235315</v>
-      </c>
-      <c r="J26">
-        <v>0.1001359112235316</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.013399</v>
-      </c>
-      <c r="N26">
-        <v>0.040197</v>
-      </c>
-      <c r="O26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P26">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q26">
-        <v>0.07830074569133334</v>
-      </c>
-      <c r="R26">
-        <v>0.704706711222</v>
-      </c>
-      <c r="S26">
-        <v>0.0003747960329520624</v>
-      </c>
-      <c r="T26">
-        <v>0.0003747960329520624</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>15.12051333333334</v>
-      </c>
-      <c r="H27">
-        <v>45.36154000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="J27">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.1525076666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.457523</v>
-      </c>
-      <c r="O27">
-        <v>0.04260145387029884</v>
-      </c>
-      <c r="P27">
-        <v>0.04260145387029883</v>
-      </c>
-      <c r="Q27">
-        <v>2.305994207268889</v>
-      </c>
-      <c r="R27">
-        <v>20.75394786542</v>
-      </c>
-      <c r="S27">
-        <v>0.01103792145609767</v>
-      </c>
-      <c r="T27">
-        <v>0.01103792145609767</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>15.12051333333334</v>
-      </c>
-      <c r="H28">
-        <v>45.36154000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="J28">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1.981129333333333</v>
-      </c>
-      <c r="N28">
-        <v>5.943388</v>
-      </c>
-      <c r="O28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="P28">
-        <v>0.5534081777643695</v>
-      </c>
-      <c r="Q28">
-        <v>29.95569249972445</v>
-      </c>
-      <c r="R28">
-        <v>269.60123249752</v>
-      </c>
-      <c r="S28">
-        <v>0.1433865618277407</v>
-      </c>
-      <c r="T28">
-        <v>0.1433865618277407</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>15.12051333333334</v>
-      </c>
-      <c r="H29">
-        <v>45.36154000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="J29">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.04744600000000001</v>
-      </c>
-      <c r="N29">
-        <v>0.142338</v>
-      </c>
-      <c r="O29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="P29">
-        <v>0.01325355390000196</v>
-      </c>
-      <c r="Q29">
-        <v>0.7174078756133335</v>
-      </c>
-      <c r="R29">
-        <v>6.456670880520002</v>
-      </c>
-      <c r="S29">
-        <v>0.003433959963145089</v>
-      </c>
-      <c r="T29">
-        <v>0.003433959963145089</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>15.12051333333334</v>
-      </c>
-      <c r="H30">
-        <v>45.36154000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="J30">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.385388</v>
-      </c>
-      <c r="N30">
-        <v>4.156164</v>
-      </c>
-      <c r="O30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="P30">
-        <v>0.386993941120767</v>
-      </c>
-      <c r="Q30">
-        <v>20.94777772584</v>
-      </c>
-      <c r="R30">
-        <v>188.52999953256</v>
-      </c>
-      <c r="S30">
-        <v>0.1002690832825032</v>
-      </c>
-      <c r="T30">
-        <v>0.1002690832825032</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>15.12051333333334</v>
-      </c>
-      <c r="H31">
-        <v>45.36154000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="J31">
-        <v>0.259097294888172</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.013399</v>
-      </c>
-      <c r="N31">
-        <v>0.040197</v>
-      </c>
-      <c r="O31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="P31">
-        <v>0.003742873344562792</v>
-      </c>
-      <c r="Q31">
-        <v>0.2025997581533334</v>
-      </c>
-      <c r="R31">
-        <v>1.82339782338</v>
-      </c>
-      <c r="S31">
-        <v>0.0009697683586852642</v>
-      </c>
-      <c r="T31">
-        <v>0.0009697683586852642</v>
+        <v>0.04768477809906928</v>
       </c>
     </row>
   </sheetData>
